--- a/wp-content-2/Supplemental-Data-Call-2020/FY2020-Paymentaccuracy.gov-Data-FINAL.xlsx
+++ b/wp-content-2/Supplemental-Data-Call-2020/FY2020-Paymentaccuracy.gov-Data-FINAL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pajak_hc\Work Folders\Desktop\Heather's Folders\PMA Trump - On Citrix\Clarify and Streamline Requirements Strategy\Data Call\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TTso\Work Folders\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4986" uniqueCount="1258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4996" uniqueCount="1258">
   <si>
     <t>FY 2012</t>
   </si>
@@ -4021,13 +4021,7 @@
     <t>6908.74**</t>
   </si>
   <si>
-    <t>Overpayments reported for the regular Unemployment Insurance (UI) program do not represent a monetary loss to the federal government. The benefits paid under the regular UI program are funded by state-assessed and state-collected taxes and are not federal tax dollars.  The UI program is administered by state agencies, which are required by statute to pay benefits when due. Payments were initially made to the right recipients for the right amounts. Subsequent information, which was not available to the agency at the time of the payment, identified an issue resulting in an overpayment. All overpayments recovered by the state agencies are returned to the state UI Trust Funds for the payment of future UI benefits, and are not available for any federal purpose.”</t>
-  </si>
-  <si>
     <t>Underpayments reported for the regular Unemployment Insurance (UI) program do not represent a monetary loss to the federal government. The benefits paid under the regular UI program are funded by state-assessed and state-collected taxes and are not federal tax dollars.  The UI program is administered by state agencies, which are required by statute to pay benefits when due. Payments were initially made to the right recipients for the right amounts. Subsequent information, which was not available to the agency at the time of the payment, identified an issue resulting in an underpayment. All underpayments are paid by] the state agencies from the state UI Trust Funds and are not available for any federal obligations.</t>
-  </si>
-  <si>
-    <t>DOL-ETA - Overpayments reported for the regular Unemployment Insurance (UI) program do not represent a monetary loss to the federal government. The benefits paid under the regular UI program are funded by state-assessed and state-collected taxes and are not federal tax dollars.  The UI program is administered by state agencies, which are required by statute to pay benefits when due. Payments were initially made to the right recipients for the right amounts. Subsequent information, which was not available to the agency at the time of the payment, identified an issue resulting in an overpayment. All overpayments recovered by the state agencies are returned to the state UI Trust Funds for the payment of future UI benefits, and are not available for any federal purpose.</t>
   </si>
   <si>
     <t>**</t>
@@ -4061,6 +4055,12 @@
   </si>
   <si>
     <t>DOL-ETA - Underpayments reported for the regular Unemployment Insurance (UI) program do not represent a monetary loss to the federal government. The benefits paid under the regular UI program are funded by state-assessed and state-collected taxes and are not federal tax dollars.  The UI program is administered by state agencies, which are required by statute to pay benefits when due. Payments were initially made to the right recipients for the right amounts. Subsequent information, which was not available to the agency at the time of the payment, identified an issue resulting in an underpayment. All underpayments are paid by the state agencies from the state UI Trust Funds and are not for any federal obligations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overpayments reported for the regular Unemployment Insurance (UI) program do not represent a monetary loss to the federal government. The benefits paid under the regular UI program are funded by state-assessed and state-collected taxes and are not federal tax dollars.  The UI program is administered by state agencies, which are required by statute to pay benefits when due. Payments were initially made to the right recipients for the right amounts. Subsequent information, which was not available to the agency at the time of the payment, identified an issue resulting in an overpayment. All overpayments recovered by the state agencies are returned to the state UI Trust Funds for the payment of future UI benefits, and are not available for any other federal purpose.  Additionally, these monetary losses are outside the agency's control.  </t>
+  </si>
+  <si>
+    <t>The reported estimate for Other Reason (1) include those payments which are required by statute to pay benefits “when due” under the Social Security Act section 300 and Supreme Court Decision Java vs California. Reported IP were initially made to the right recipients, for the right amounts, at the time required by law.  Subsequent information, which was not available to the state agencies at the time of the payment, identified an issue resulting in an underpayment or overpayment.  However, please note that all overpayments recovered by the state agencies must be returned to the state Unemployment Trust Fund for the payment of future UI benefits, and are not available for payment integrity or any other Federal purpose.</t>
   </si>
 </sst>
 </file>
@@ -5166,7 +5166,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="697">
+  <cellXfs count="699">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7152,6 +7152,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="8" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="8" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="25" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7170,28 +7194,10 @@
     <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="8" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="25" fillId="38" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="25" fillId="38" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="8" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8252,78 +8258,78 @@
     <row r="1" spans="1:53" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="121"/>
       <c r="B1" s="231"/>
-      <c r="C1" s="673" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="674"/>
-      <c r="E1" s="675"/>
-      <c r="F1" s="670" t="s">
+      <c r="C1" s="666" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="667"/>
+      <c r="E1" s="668"/>
+      <c r="F1" s="669" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="674"/>
-      <c r="H1" s="674"/>
-      <c r="I1" s="676" t="s">
+      <c r="G1" s="667"/>
+      <c r="H1" s="667"/>
+      <c r="I1" s="670" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="674"/>
-      <c r="K1" s="675"/>
-      <c r="L1" s="670" t="s">
+      <c r="J1" s="667"/>
+      <c r="K1" s="668"/>
+      <c r="L1" s="669" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="670"/>
-      <c r="N1" s="670"/>
-      <c r="O1" s="676" t="s">
+      <c r="M1" s="669"/>
+      <c r="N1" s="669"/>
+      <c r="O1" s="670" t="s">
         <v>175</v>
       </c>
-      <c r="P1" s="670"/>
-      <c r="Q1" s="677"/>
-      <c r="R1" s="670" t="s">
+      <c r="P1" s="669"/>
+      <c r="Q1" s="671"/>
+      <c r="R1" s="669" t="s">
         <v>271</v>
       </c>
-      <c r="S1" s="670"/>
-      <c r="T1" s="670"/>
-      <c r="U1" s="676" t="s">
+      <c r="S1" s="669"/>
+      <c r="T1" s="669"/>
+      <c r="U1" s="670" t="s">
         <v>320</v>
       </c>
-      <c r="V1" s="670"/>
-      <c r="W1" s="670"/>
-      <c r="X1" s="671" t="s">
+      <c r="V1" s="669"/>
+      <c r="W1" s="669"/>
+      <c r="X1" s="678" t="s">
         <v>462</v>
       </c>
-      <c r="Y1" s="672"/>
-      <c r="Z1" s="672"/>
-      <c r="AA1" s="664" t="s">
+      <c r="Y1" s="679"/>
+      <c r="Z1" s="679"/>
+      <c r="AA1" s="672" t="s">
         <v>587</v>
       </c>
-      <c r="AB1" s="665"/>
-      <c r="AC1" s="666"/>
-      <c r="AD1" s="664" t="s">
+      <c r="AB1" s="673"/>
+      <c r="AC1" s="674"/>
+      <c r="AD1" s="672" t="s">
         <v>591</v>
       </c>
-      <c r="AE1" s="665"/>
-      <c r="AF1" s="665"/>
-      <c r="AG1" s="665"/>
-      <c r="AH1" s="665"/>
-      <c r="AI1" s="665"/>
-      <c r="AJ1" s="665"/>
-      <c r="AK1" s="666"/>
-      <c r="AL1" s="664" t="s">
+      <c r="AE1" s="673"/>
+      <c r="AF1" s="673"/>
+      <c r="AG1" s="673"/>
+      <c r="AH1" s="673"/>
+      <c r="AI1" s="673"/>
+      <c r="AJ1" s="673"/>
+      <c r="AK1" s="674"/>
+      <c r="AL1" s="672" t="s">
         <v>591</v>
       </c>
-      <c r="AM1" s="666"/>
-      <c r="AN1" s="664" t="s">
+      <c r="AM1" s="674"/>
+      <c r="AN1" s="672" t="s">
         <v>591</v>
       </c>
-      <c r="AO1" s="666"/>
-      <c r="AP1" s="667"/>
-      <c r="AQ1" s="668"/>
-      <c r="AR1" s="669"/>
-      <c r="AS1" s="664" t="s">
+      <c r="AO1" s="674"/>
+      <c r="AP1" s="675"/>
+      <c r="AQ1" s="676"/>
+      <c r="AR1" s="677"/>
+      <c r="AS1" s="672" t="s">
         <v>591</v>
       </c>
-      <c r="AT1" s="665"/>
-      <c r="AU1" s="665"/>
-      <c r="AV1" s="666"/>
+      <c r="AT1" s="673"/>
+      <c r="AU1" s="673"/>
+      <c r="AV1" s="674"/>
     </row>
     <row r="2" spans="1:53" ht="81" x14ac:dyDescent="0.4">
       <c r="A2" s="432" t="s">
@@ -29894,15 +29900,17 @@
     </row>
     <row r="248" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="428" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B248" s="429" t="s">
         <v>28</v>
       </c>
       <c r="C248" s="429" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D248" s="429"/>
+        <v>770</v>
+      </c>
+      <c r="D248" s="429" t="s">
+        <v>1256</v>
+      </c>
       <c r="E248" s="429"/>
       <c r="F248" s="243"/>
       <c r="G248" s="243"/>
@@ -29920,13 +29928,13 @@
     </row>
     <row r="249" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A249" s="428" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B249" s="429" t="s">
         <v>28</v>
       </c>
       <c r="C249" s="429" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D249" s="429"/>
       <c r="E249" s="429"/>
@@ -31453,11 +31461,6 @@
     <sortCondition ref="B215"/>
   </sortState>
   <mergeCells count="14">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="U1:W1"/>
     <mergeCell ref="AS1:AV1"/>
     <mergeCell ref="AP1:AR1"/>
     <mergeCell ref="AN1:AO1"/>
@@ -31467,6 +31470,11 @@
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AD1:AK1"/>
     <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="U1:W1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -31498,20 +31506,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="696" t="s">
+      <c r="A1" s="698" t="s">
         <v>1223</v>
       </c>
-      <c r="B1" s="696"/>
+      <c r="B1" s="698"/>
     </row>
     <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="696"/>
-      <c r="B2" s="696"/>
+      <c r="A2" s="698"/>
+      <c r="B2" s="698"/>
     </row>
     <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="678" t="s">
+      <c r="A3" s="680" t="s">
         <v>587</v>
       </c>
-      <c r="B3" s="678"/>
+      <c r="B3" s="680"/>
     </row>
     <row r="4" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="373" t="s">
@@ -31606,13 +31614,13 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -33158,6 +33166,28 @@
       </c>
       <c r="D36" s="505" t="s">
         <v>1214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B37" s="664" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="664" t="s">
+        <v>770</v>
+      </c>
+      <c r="D37" s="665" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B38" s="661" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="664" t="s">
+        <v>770</v>
+      </c>
+      <c r="D38" s="167" t="s">
+        <v>1257</v>
       </c>
     </row>
   </sheetData>
@@ -36319,7 +36349,7 @@
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
-  <dimension ref="A1:R432"/>
+  <dimension ref="A1:R433"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
@@ -52893,7 +52923,7 @@
         <v>29</v>
       </c>
       <c r="D416" s="167" t="s">
-        <v>1251</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="417" spans="2:4" ht="14.25" x14ac:dyDescent="0.45">
@@ -52904,18 +52934,18 @@
         <v>29</v>
       </c>
       <c r="D417" s="167" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="418" spans="2:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="B418" s="167" t="s">
-        <v>39</v>
-      </c>
-      <c r="C418" s="167" t="s">
-        <v>780</v>
-      </c>
-      <c r="D418" s="556" t="s">
-        <v>1207</v>
+      <c r="B418" s="661" t="s">
+        <v>28</v>
+      </c>
+      <c r="C418" s="662" t="s">
+        <v>29</v>
+      </c>
+      <c r="D418" s="167" t="s">
+        <v>1257</v>
       </c>
     </row>
     <row r="419" spans="2:4" ht="14.25" x14ac:dyDescent="0.45">
@@ -52923,21 +52953,21 @@
         <v>39</v>
       </c>
       <c r="C419" s="167" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D419" s="556" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="420" spans="2:4" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B420" s="167" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C420" s="167" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D420" s="557" t="s">
-        <v>1209</v>
+        <v>782</v>
+      </c>
+      <c r="D420" s="556" t="s">
+        <v>1208</v>
       </c>
     </row>
     <row r="421" spans="2:4" ht="14.25" x14ac:dyDescent="0.45">
@@ -52945,41 +52975,41 @@
         <v>46</v>
       </c>
       <c r="C421" s="167" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D421" s="557" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="422" spans="2:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B422" s="167" t="s">
+        <v>46</v>
+      </c>
+      <c r="C422" s="167" t="s">
         <v>1169</v>
       </c>
-      <c r="D421" s="557" t="s">
+      <c r="D422" s="557" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="422" spans="2:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="B422" s="558" t="s">
+    <row r="423" spans="2:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B423" s="558" t="s">
         <v>51</v>
       </c>
-      <c r="C422" s="558" t="s">
+      <c r="C423" s="558" t="s">
         <v>1211</v>
       </c>
-      <c r="D422" s="558" t="s">
+      <c r="D423" s="558" t="s">
         <v>1212</v>
-      </c>
-    </row>
-    <row r="423" spans="2:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="B423" s="167" t="s">
-        <v>54</v>
-      </c>
-      <c r="C423" s="167"/>
-      <c r="D423" s="167" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="424" spans="2:4" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B424" s="167" t="s">
-        <v>65</v>
-      </c>
-      <c r="C424" s="167" t="s">
-        <v>797</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C424" s="167"/>
       <c r="D424" s="167" t="s">
-        <v>798</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="425" spans="2:4" ht="14.25" x14ac:dyDescent="0.45">
@@ -52987,7 +53017,7 @@
         <v>65</v>
       </c>
       <c r="C425" s="167" t="s">
-        <v>321</v>
+        <v>797</v>
       </c>
       <c r="D425" s="167" t="s">
         <v>798</v>
@@ -52998,7 +53028,7 @@
         <v>65</v>
       </c>
       <c r="C426" s="167" t="s">
-        <v>727</v>
+        <v>321</v>
       </c>
       <c r="D426" s="167" t="s">
         <v>798</v>
@@ -53009,21 +53039,21 @@
         <v>65</v>
       </c>
       <c r="C427" s="167" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D427" s="167" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="428" spans="2:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="B428" s="559" t="s">
-        <v>69</v>
-      </c>
-      <c r="C428" s="559" t="s">
-        <v>233</v>
-      </c>
-      <c r="D428" s="560" t="s">
-        <v>1214</v>
+      <c r="B428" s="167" t="s">
+        <v>65</v>
+      </c>
+      <c r="C428" s="167" t="s">
+        <v>728</v>
+      </c>
+      <c r="D428" s="167" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="429" spans="2:4" ht="14.25" x14ac:dyDescent="0.45">
@@ -53031,21 +53061,21 @@
         <v>69</v>
       </c>
       <c r="C429" s="559" t="s">
+        <v>233</v>
+      </c>
+      <c r="D429" s="560" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="430" spans="2:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B430" s="559" t="s">
+        <v>69</v>
+      </c>
+      <c r="C430" s="559" t="s">
         <v>234</v>
       </c>
-      <c r="D429" s="557" t="s">
+      <c r="D430" s="557" t="s">
         <v>1215</v>
-      </c>
-    </row>
-    <row r="430" spans="2:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="B430" s="167" t="s">
-        <v>79</v>
-      </c>
-      <c r="C430" s="167" t="s">
-        <v>804</v>
-      </c>
-      <c r="D430" s="167" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="431" spans="2:4" ht="14.25" x14ac:dyDescent="0.45">
@@ -53053,21 +53083,32 @@
         <v>79</v>
       </c>
       <c r="C431" s="167" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D431" s="167" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="432" spans="2:4" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="B432" s="661" t="s">
+      <c r="B432" s="167" t="s">
+        <v>79</v>
+      </c>
+      <c r="C432" s="167" t="s">
+        <v>806</v>
+      </c>
+      <c r="D432" s="167" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="433" spans="2:4" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="B433" s="661" t="s">
         <v>82</v>
       </c>
-      <c r="C432" s="661" t="s">
+      <c r="C433" s="661" t="s">
         <v>1234</v>
       </c>
-      <c r="D432" s="663" t="s">
-        <v>1256</v>
+      <c r="D433" s="663" t="s">
+        <v>1254</v>
       </c>
     </row>
   </sheetData>
@@ -53345,11 +53386,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="130" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A1" s="678" t="s">
+      <c r="A1" s="680" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="678"/>
-      <c r="C1" s="678"/>
+      <c r="B1" s="680"/>
+      <c r="C1" s="680"/>
       <c r="D1" s="129"/>
       <c r="E1" s="129"/>
       <c r="F1" s="129"/>
@@ -53359,11 +53400,11 @@
       <c r="J1" s="129"/>
     </row>
     <row r="2" spans="1:10" s="130" customFormat="1" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="679" t="s">
+      <c r="A2" s="681" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="679"/>
-      <c r="C2" s="679"/>
+      <c r="B2" s="681"/>
+      <c r="C2" s="681"/>
       <c r="D2" s="129"/>
       <c r="E2" s="129"/>
       <c r="F2" s="129"/>
@@ -53373,11 +53414,11 @@
       <c r="J2" s="129"/>
     </row>
     <row r="3" spans="1:10" s="130" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="680" t="s">
+      <c r="A3" s="682" t="s">
         <v>1220</v>
       </c>
-      <c r="B3" s="680"/>
-      <c r="C3" s="680"/>
+      <c r="B3" s="682"/>
+      <c r="C3" s="682"/>
       <c r="D3" s="129"/>
       <c r="E3" s="129"/>
       <c r="F3" s="129"/>
@@ -55096,66 +55137,66 @@
   <sheetData>
     <row r="1" spans="1:37" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="18"/>
-      <c r="B1" s="681" t="s">
+      <c r="B1" s="683" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="682"/>
-      <c r="D1" s="681"/>
-      <c r="E1" s="681" t="s">
+      <c r="C1" s="684"/>
+      <c r="D1" s="683"/>
+      <c r="E1" s="683" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="681"/>
-      <c r="G1" s="681"/>
-      <c r="H1" s="681" t="s">
+      <c r="F1" s="683"/>
+      <c r="G1" s="683"/>
+      <c r="H1" s="683" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="681"/>
-      <c r="J1" s="681"/>
-      <c r="K1" s="681" t="s">
+      <c r="I1" s="683"/>
+      <c r="J1" s="683"/>
+      <c r="K1" s="683" t="s">
         <v>165</v>
       </c>
-      <c r="L1" s="681"/>
-      <c r="M1" s="681"/>
-      <c r="N1" s="681" t="s">
+      <c r="L1" s="683"/>
+      <c r="M1" s="683"/>
+      <c r="N1" s="683" t="s">
         <v>162</v>
       </c>
-      <c r="O1" s="681"/>
-      <c r="P1" s="681"/>
-      <c r="Q1" s="681" t="s">
+      <c r="O1" s="683"/>
+      <c r="P1" s="683"/>
+      <c r="Q1" s="683" t="s">
         <v>160</v>
       </c>
-      <c r="R1" s="681"/>
-      <c r="S1" s="681"/>
-      <c r="T1" s="681" t="s">
+      <c r="R1" s="683"/>
+      <c r="S1" s="683"/>
+      <c r="T1" s="683" t="s">
         <v>163</v>
       </c>
-      <c r="U1" s="681"/>
-      <c r="V1" s="681"/>
-      <c r="W1" s="681" t="s">
+      <c r="U1" s="683"/>
+      <c r="V1" s="683"/>
+      <c r="W1" s="683" t="s">
         <v>267</v>
       </c>
-      <c r="X1" s="681"/>
-      <c r="Y1" s="681"/>
-      <c r="Z1" s="681" t="s">
+      <c r="X1" s="683"/>
+      <c r="Y1" s="683"/>
+      <c r="Z1" s="683" t="s">
         <v>276</v>
       </c>
-      <c r="AA1" s="681"/>
-      <c r="AB1" s="681"/>
-      <c r="AC1" s="681" t="s">
+      <c r="AA1" s="683"/>
+      <c r="AB1" s="683"/>
+      <c r="AC1" s="683" t="s">
         <v>328</v>
       </c>
-      <c r="AD1" s="681"/>
-      <c r="AE1" s="681"/>
-      <c r="AF1" s="681" t="s">
+      <c r="AD1" s="683"/>
+      <c r="AE1" s="683"/>
+      <c r="AF1" s="683" t="s">
         <v>554</v>
       </c>
-      <c r="AG1" s="681"/>
-      <c r="AH1" s="681"/>
-      <c r="AI1" s="681" t="s">
+      <c r="AG1" s="683"/>
+      <c r="AH1" s="683"/>
+      <c r="AI1" s="683" t="s">
         <v>1218</v>
       </c>
-      <c r="AJ1" s="681"/>
-      <c r="AK1" s="681"/>
+      <c r="AJ1" s="683"/>
+      <c r="AK1" s="683"/>
     </row>
     <row r="2" spans="1:37" ht="58.15" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
@@ -58570,33 +58611,33 @@
       <c r="A3" s="132"/>
       <c r="B3" s="139"/>
       <c r="C3" s="138"/>
-      <c r="D3" s="683" t="s">
+      <c r="D3" s="685" t="s">
         <v>582</v>
       </c>
-      <c r="E3" s="684"/>
-      <c r="F3" s="685" t="s">
+      <c r="E3" s="686"/>
+      <c r="F3" s="687" t="s">
         <v>581</v>
       </c>
-      <c r="G3" s="686"/>
-      <c r="H3" s="686"/>
-      <c r="I3" s="687"/>
-      <c r="J3" s="688" t="s">
+      <c r="G3" s="688"/>
+      <c r="H3" s="688"/>
+      <c r="I3" s="689"/>
+      <c r="J3" s="690" t="s">
         <v>580</v>
       </c>
-      <c r="K3" s="689"/>
-      <c r="L3" s="689"/>
-      <c r="M3" s="689"/>
-      <c r="N3" s="689"/>
-      <c r="O3" s="689"/>
-      <c r="P3" s="690"/>
-      <c r="Q3" s="691" t="s">
+      <c r="K3" s="691"/>
+      <c r="L3" s="691"/>
+      <c r="M3" s="691"/>
+      <c r="N3" s="691"/>
+      <c r="O3" s="691"/>
+      <c r="P3" s="692"/>
+      <c r="Q3" s="693" t="s">
         <v>579</v>
       </c>
-      <c r="R3" s="692"/>
-      <c r="S3" s="692"/>
-      <c r="T3" s="692"/>
-      <c r="U3" s="692"/>
-      <c r="V3" s="693"/>
+      <c r="R3" s="694"/>
+      <c r="S3" s="694"/>
+      <c r="T3" s="694"/>
+      <c r="U3" s="694"/>
+      <c r="V3" s="695"/>
     </row>
     <row r="4" spans="1:22" s="130" customFormat="1" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="346" t="s">
@@ -69398,19 +69439,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="694" t="s">
+      <c r="A1" s="696" t="s">
         <v>1224</v>
       </c>
-      <c r="B1" s="694"/>
-      <c r="C1" s="694"/>
-      <c r="D1" s="694"/>
-      <c r="E1" s="694"/>
-      <c r="F1" s="694"/>
-      <c r="G1" s="694"/>
-      <c r="H1" s="694"/>
-      <c r="I1" s="694"/>
-      <c r="J1" s="694"/>
-      <c r="K1" s="694"/>
+      <c r="B1" s="696"/>
+      <c r="C1" s="696"/>
+      <c r="D1" s="696"/>
+      <c r="E1" s="696"/>
+      <c r="F1" s="696"/>
+      <c r="G1" s="696"/>
+      <c r="H1" s="696"/>
+      <c r="I1" s="696"/>
+      <c r="J1" s="696"/>
+      <c r="K1" s="696"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -70511,11 +70552,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.45">
-      <c r="A1" s="695" t="s">
+      <c r="A1" s="697" t="s">
         <v>1221</v>
       </c>
-      <c r="B1" s="695"/>
-      <c r="C1" s="695"/>
+      <c r="B1" s="697"/>
+      <c r="C1" s="697"/>
     </row>
     <row r="2" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="266"/>

--- a/wp-content-2/Supplemental-Data-Call-2020/FY2020-Paymentaccuracy.gov-Data-FINAL.xlsx
+++ b/wp-content-2/Supplemental-Data-Call-2020/FY2020-Paymentaccuracy.gov-Data-FINAL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TTso\Work Folders\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TTso\Work Folders\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -51,6 +51,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -7229,6 +7238,9 @@
     <xf numFmtId="9" fontId="18" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="25" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7327,9 +7339,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="33">
@@ -8281,54 +8290,54 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="427"/>
-    <col min="2" max="2" width="36.3984375" style="427" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" style="427" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="427" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="427" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.796875" style="29" customWidth="1"/>
     <col min="5" max="5" width="9" style="29"/>
-    <col min="6" max="6" width="13.3984375" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="29" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.1328125" style="29" customWidth="1"/>
     <col min="8" max="8" width="9" style="29"/>
-    <col min="9" max="9" width="13.59765625" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.86328125" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.796875" style="29" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="29"/>
     <col min="12" max="12" width="16" style="29" customWidth="1"/>
     <col min="13" max="13" width="14.1328125" style="29" customWidth="1"/>
-    <col min="14" max="14" width="9.86328125" style="29" customWidth="1"/>
+    <col min="14" max="14" width="9.796875" style="29" customWidth="1"/>
     <col min="15" max="15" width="17.1328125" style="29" customWidth="1"/>
-    <col min="16" max="16" width="13.3984375" style="29" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" style="29" customWidth="1"/>
     <col min="17" max="17" width="9" style="29"/>
     <col min="18" max="18" width="17.1328125" style="29" customWidth="1"/>
-    <col min="19" max="19" width="13.3984375" style="29" customWidth="1"/>
+    <col min="19" max="19" width="13.33203125" style="29" customWidth="1"/>
     <col min="20" max="20" width="9" style="29"/>
     <col min="21" max="21" width="17.1328125" style="29" customWidth="1"/>
-    <col min="22" max="22" width="13.3984375" style="29" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" style="29" customWidth="1"/>
     <col min="23" max="23" width="9" style="29"/>
     <col min="24" max="24" width="17.1328125" style="29" customWidth="1"/>
-    <col min="25" max="25" width="13.3984375" style="29" customWidth="1"/>
-    <col min="26" max="26" width="14.265625" style="128" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.33203125" style="29" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" style="128" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17.1328125" style="29" customWidth="1"/>
-    <col min="28" max="28" width="13.3984375" style="29" customWidth="1"/>
-    <col min="29" max="29" width="14.265625" style="128" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="11.3984375" style="29" customWidth="1"/>
-    <col min="32" max="32" width="11.3984375" style="65" customWidth="1"/>
-    <col min="33" max="33" width="11.3984375" style="29" customWidth="1"/>
-    <col min="34" max="34" width="11.3984375" style="65" customWidth="1"/>
-    <col min="35" max="37" width="11.3984375" style="29" customWidth="1"/>
-    <col min="38" max="38" width="14.265625" style="29" customWidth="1"/>
-    <col min="39" max="39" width="12.59765625" style="29" customWidth="1"/>
-    <col min="40" max="40" width="12.86328125" style="29" customWidth="1"/>
-    <col min="41" max="41" width="12.59765625" style="29" customWidth="1"/>
-    <col min="42" max="42" width="13.73046875" style="29" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.86328125" style="29" customWidth="1"/>
+    <col min="28" max="28" width="13.33203125" style="29" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" style="128" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="11.33203125" style="29" customWidth="1"/>
+    <col min="32" max="32" width="11.33203125" style="65" customWidth="1"/>
+    <col min="33" max="33" width="11.33203125" style="29" customWidth="1"/>
+    <col min="34" max="34" width="11.33203125" style="65" customWidth="1"/>
+    <col min="35" max="37" width="11.33203125" style="29" customWidth="1"/>
+    <col min="38" max="38" width="14.33203125" style="29" customWidth="1"/>
+    <col min="39" max="39" width="12.6640625" style="29" customWidth="1"/>
+    <col min="40" max="40" width="12.796875" style="29" customWidth="1"/>
+    <col min="41" max="41" width="12.6640625" style="29" customWidth="1"/>
+    <col min="42" max="42" width="13.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.796875" style="29" customWidth="1"/>
     <col min="44" max="44" width="9" style="29"/>
-    <col min="45" max="45" width="11.3984375" style="128" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.86328125" style="128" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.33203125" style="128" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.796875" style="128" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="9" style="29"/>
     <col min="48" max="48" width="12.1328125" style="64" customWidth="1"/>
     <col min="49" max="49" width="9" style="29"/>
@@ -8336,81 +8345,81 @@
     <col min="51" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="31.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:53" ht="31.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="121"/>
       <c r="B1" s="231"/>
-      <c r="C1" s="666" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="667"/>
-      <c r="E1" s="668"/>
-      <c r="F1" s="669" t="s">
+      <c r="C1" s="667" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="668"/>
+      <c r="E1" s="669"/>
+      <c r="F1" s="670" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="667"/>
-      <c r="H1" s="667"/>
-      <c r="I1" s="670" t="s">
+      <c r="G1" s="668"/>
+      <c r="H1" s="668"/>
+      <c r="I1" s="671" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="667"/>
-      <c r="K1" s="668"/>
-      <c r="L1" s="669" t="s">
+      <c r="J1" s="668"/>
+      <c r="K1" s="669"/>
+      <c r="L1" s="670" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="669"/>
-      <c r="N1" s="669"/>
-      <c r="O1" s="670" t="s">
+      <c r="M1" s="670"/>
+      <c r="N1" s="670"/>
+      <c r="O1" s="671" t="s">
         <v>175</v>
       </c>
-      <c r="P1" s="669"/>
-      <c r="Q1" s="671"/>
-      <c r="R1" s="669" t="s">
+      <c r="P1" s="670"/>
+      <c r="Q1" s="672"/>
+      <c r="R1" s="670" t="s">
         <v>271</v>
       </c>
-      <c r="S1" s="669"/>
-      <c r="T1" s="669"/>
-      <c r="U1" s="670" t="s">
+      <c r="S1" s="670"/>
+      <c r="T1" s="670"/>
+      <c r="U1" s="671" t="s">
         <v>320</v>
       </c>
-      <c r="V1" s="669"/>
-      <c r="W1" s="669"/>
-      <c r="X1" s="678" t="s">
+      <c r="V1" s="670"/>
+      <c r="W1" s="670"/>
+      <c r="X1" s="679" t="s">
         <v>462</v>
       </c>
-      <c r="Y1" s="679"/>
-      <c r="Z1" s="679"/>
-      <c r="AA1" s="672" t="s">
+      <c r="Y1" s="680"/>
+      <c r="Z1" s="680"/>
+      <c r="AA1" s="673" t="s">
         <v>587</v>
       </c>
-      <c r="AB1" s="673"/>
-      <c r="AC1" s="674"/>
-      <c r="AD1" s="672" t="s">
+      <c r="AB1" s="674"/>
+      <c r="AC1" s="675"/>
+      <c r="AD1" s="673" t="s">
         <v>591</v>
       </c>
-      <c r="AE1" s="673"/>
-      <c r="AF1" s="673"/>
-      <c r="AG1" s="673"/>
-      <c r="AH1" s="673"/>
-      <c r="AI1" s="673"/>
-      <c r="AJ1" s="673"/>
-      <c r="AK1" s="674"/>
-      <c r="AL1" s="672" t="s">
+      <c r="AE1" s="674"/>
+      <c r="AF1" s="674"/>
+      <c r="AG1" s="674"/>
+      <c r="AH1" s="674"/>
+      <c r="AI1" s="674"/>
+      <c r="AJ1" s="674"/>
+      <c r="AK1" s="675"/>
+      <c r="AL1" s="673" t="s">
         <v>591</v>
       </c>
-      <c r="AM1" s="674"/>
-      <c r="AN1" s="672" t="s">
+      <c r="AM1" s="675"/>
+      <c r="AN1" s="673" t="s">
         <v>591</v>
       </c>
-      <c r="AO1" s="674"/>
-      <c r="AP1" s="675"/>
-      <c r="AQ1" s="676"/>
-      <c r="AR1" s="677"/>
-      <c r="AS1" s="672" t="s">
+      <c r="AO1" s="675"/>
+      <c r="AP1" s="676"/>
+      <c r="AQ1" s="677"/>
+      <c r="AR1" s="678"/>
+      <c r="AS1" s="673" t="s">
         <v>591</v>
       </c>
-      <c r="AT1" s="673"/>
-      <c r="AU1" s="673"/>
-      <c r="AV1" s="674"/>
+      <c r="AT1" s="674"/>
+      <c r="AU1" s="674"/>
+      <c r="AV1" s="675"/>
     </row>
     <row r="2" spans="1:53" ht="81" x14ac:dyDescent="0.4">
       <c r="A2" s="431" t="s">
@@ -21528,7 +21537,7 @@
         <v>76.06</v>
       </c>
       <c r="AN138" s="275">
-        <v>0</v>
+        <v>94.95</v>
       </c>
       <c r="AO138" s="156">
         <v>128.03</v>
@@ -31655,20 +31664,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="698" t="s">
+      <c r="A1" s="699" t="s">
         <v>1218</v>
       </c>
-      <c r="B1" s="698"/>
+      <c r="B1" s="699"/>
     </row>
     <row r="2" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="698"/>
-      <c r="B2" s="698"/>
+      <c r="A2" s="699"/>
+      <c r="B2" s="699"/>
     </row>
     <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="680" t="s">
+      <c r="A3" s="681" t="s">
         <v>587</v>
       </c>
-      <c r="B3" s="680"/>
+      <c r="B3" s="681"/>
     </row>
     <row r="4" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="372" t="s">
@@ -31774,23 +31783,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" style="133" customWidth="1"/>
-    <col min="2" max="2" width="27.265625" style="133" customWidth="1"/>
-    <col min="3" max="3" width="16.73046875" style="133" customWidth="1"/>
-    <col min="4" max="4" width="18.73046875" style="133" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="133" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="133" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="133" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="133" customWidth="1"/>
     <col min="5" max="5" width="19" style="133" customWidth="1"/>
     <col min="6" max="6" width="16" style="133" customWidth="1"/>
-    <col min="7" max="7" width="16.59765625" style="133" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="133" customWidth="1"/>
-    <col min="9" max="9" width="15.86328125" style="133" customWidth="1"/>
-    <col min="10" max="10" width="15.59765625" style="133" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="133" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="133" customWidth="1"/>
+    <col min="9" max="9" width="15.796875" style="133" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="133" customWidth="1"/>
     <col min="11" max="11" width="16" style="133" customWidth="1"/>
-    <col min="12" max="12" width="16.59765625" style="133" customWidth="1"/>
-    <col min="13" max="13" width="28.73046875" style="133" customWidth="1"/>
-    <col min="14" max="14" width="14.73046875" style="133" customWidth="1"/>
-    <col min="15" max="15" width="15.265625" style="133" customWidth="1"/>
-    <col min="16" max="16" width="14.73046875" style="133" customWidth="1"/>
-    <col min="17" max="17" width="14.265625" style="133" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="133" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" style="133" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" style="133" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="133" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" style="133" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" style="133" customWidth="1"/>
     <col min="18" max="16384" width="9" style="133"/>
   </cols>
   <sheetData>
@@ -33324,7 +33333,7 @@
       <c r="C37" s="662" t="s">
         <v>770</v>
       </c>
-      <c r="D37" s="699" t="s">
+      <c r="D37" s="666" t="s">
         <v>1262</v>
       </c>
     </row>
@@ -33369,52 +33378,52 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.265625" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.265625" style="37" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.73046875" style="60" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.3984375" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.73046875" style="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.3984375" style="60" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.73046875" style="60" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.3984375" style="60" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.73046875" style="60" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.3984375" style="60" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.73046875" style="60" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.3984375" style="60" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.73046875" style="60" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13.3984375" style="60" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.73046875" style="60" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13.3984375" style="60" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.73046875" style="60" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="13.3984375" style="60" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.73046875" style="60" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.3984375" style="60" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.3984375" style="37" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.73046875" style="37" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="13.3984375" style="37" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.73046875" style="37" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="13.3984375" style="37" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.73046875" style="37" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.3984375" style="37" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.73046875" style="37" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.73046875" style="37" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.3984375" style="37" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.73046875" style="37" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.73046875" style="37" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.3984375" style="37" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.73046875" style="37" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.73046875" style="37" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.3984375" style="37" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.73046875" style="37" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.73046875" style="37" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.3984375" style="37" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.73046875" style="37" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.73046875" style="37" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.3984375" style="37" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="8.86328125" style="37"/>
+    <col min="1" max="1" width="10.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.33203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.33203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.33203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.33203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13.33203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.33203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13.33203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.6640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.33203125" style="60" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="13.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="13.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="54" max="16384" width="8.796875" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="40.5" x14ac:dyDescent="0.45">
@@ -36580,15 +36589,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" style="133" customWidth="1"/>
-    <col min="2" max="2" width="35.73046875" style="133" customWidth="1"/>
-    <col min="3" max="3" width="18.73046875" style="133" customWidth="1"/>
-    <col min="4" max="4" width="14.73046875" style="133" customWidth="1"/>
-    <col min="5" max="5" width="16.3984375" style="133" customWidth="1"/>
-    <col min="6" max="13" width="14.73046875" style="133" customWidth="1"/>
-    <col min="14" max="14" width="19.265625" style="133" customWidth="1"/>
-    <col min="15" max="17" width="14.73046875" style="133" customWidth="1"/>
-    <col min="18" max="18" width="18.59765625" style="133" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="133" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="133" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="133" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="133" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="133" customWidth="1"/>
+    <col min="6" max="13" width="14.6640625" style="133" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="133" customWidth="1"/>
+    <col min="15" max="17" width="14.6640625" style="133" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" style="133" customWidth="1"/>
     <col min="19" max="16384" width="9" style="133"/>
   </cols>
   <sheetData>
@@ -38678,7 +38687,7 @@
         <v>59.738399999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:18" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A53" s="261" t="s">
         <v>19</v>
       </c>
@@ -38730,7 +38739,7 @@
         <v>0.57542700999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:18" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A54" s="261" t="s">
         <v>19</v>
       </c>
@@ -38760,7 +38769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:18" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A55" s="261" t="s">
         <v>19</v>
       </c>
@@ -38812,7 +38821,7 @@
         <v>2.4822779999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:18" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A56" s="261" t="s">
         <v>19</v>
       </c>
@@ -41630,7 +41639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:18" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="271" t="s">
         <v>24</v>
       </c>
@@ -41682,7 +41691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:18" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="271" t="s">
         <v>24</v>
       </c>
@@ -41712,7 +41721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:18" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="271" t="s">
         <v>24</v>
       </c>
@@ -41764,7 +41773,7 @@
         <v>1.848139E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:18" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="271" t="s">
         <v>24</v>
       </c>
@@ -45126,7 +45135,7 @@
         <v>39.11</v>
       </c>
     </row>
-    <row r="210" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:18" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="261" t="s">
         <v>54</v>
       </c>
@@ -45156,7 +45165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:18" ht="14" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="261" t="s">
         <v>54</v>
       </c>
@@ -53599,18 +53608,18 @@
   <cols>
     <col min="1" max="1" width="9.1328125" style="131"/>
     <col min="2" max="2" width="78" style="131" customWidth="1"/>
-    <col min="3" max="3" width="15.86328125" style="327" customWidth="1"/>
+    <col min="3" max="3" width="15.796875" style="327" customWidth="1"/>
     <col min="4" max="4" width="23.1328125" style="131" customWidth="1"/>
-    <col min="5" max="5" width="16.86328125" style="131" customWidth="1"/>
+    <col min="5" max="5" width="16.796875" style="131" customWidth="1"/>
     <col min="6" max="16384" width="9.1328125" style="131"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="130" customFormat="1" ht="15" x14ac:dyDescent="0.45">
-      <c r="A1" s="680" t="s">
+      <c r="A1" s="681" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="680"/>
-      <c r="C1" s="680"/>
+      <c r="B1" s="681"/>
+      <c r="C1" s="681"/>
       <c r="D1" s="129"/>
       <c r="E1" s="129"/>
       <c r="F1" s="129"/>
@@ -53620,11 +53629,11 @@
       <c r="J1" s="129"/>
     </row>
     <row r="2" spans="1:10" s="130" customFormat="1" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="681" t="s">
+      <c r="A2" s="682" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="681"/>
-      <c r="C2" s="681"/>
+      <c r="B2" s="682"/>
+      <c r="C2" s="682"/>
       <c r="D2" s="129"/>
       <c r="E2" s="129"/>
       <c r="F2" s="129"/>
@@ -53633,12 +53642,12 @@
       <c r="I2" s="129"/>
       <c r="J2" s="129"/>
     </row>
-    <row r="3" spans="1:10" s="130" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="682" t="s">
+    <row r="3" spans="1:10" s="130" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="683" t="s">
         <v>1215</v>
       </c>
-      <c r="B3" s="682"/>
-      <c r="C3" s="682"/>
+      <c r="B3" s="683"/>
+      <c r="C3" s="683"/>
       <c r="D3" s="129"/>
       <c r="E3" s="129"/>
       <c r="F3" s="129"/>
@@ -55307,116 +55316,115 @@
   <dimension ref="A1:AK37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14" style="23" customWidth="1"/>
     <col min="2" max="2" width="11.1328125" style="23" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="8.86328125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="11.1328125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" style="23" customWidth="1"/>
-    <col min="7" max="7" width="8.86328125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="8.796875" style="23" customWidth="1"/>
+    <col min="5" max="6" width="11.1328125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="8.796875" style="23" customWidth="1"/>
     <col min="8" max="8" width="11.1328125" style="23" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" style="23" customWidth="1"/>
-    <col min="10" max="10" width="8.86328125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="8.796875" style="23" customWidth="1"/>
     <col min="11" max="11" width="11.1328125" style="23" customWidth="1"/>
-    <col min="12" max="12" width="12.86328125" style="23" customWidth="1"/>
-    <col min="13" max="13" width="8.86328125" style="23" customWidth="1"/>
-    <col min="14" max="14" width="12.86328125" style="23" customWidth="1"/>
+    <col min="12" max="12" width="12.796875" style="23" customWidth="1"/>
+    <col min="13" max="13" width="8.796875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="12.796875" style="23" customWidth="1"/>
     <col min="15" max="15" width="13.1328125" style="23" customWidth="1"/>
-    <col min="16" max="16" width="8.86328125" style="23" customWidth="1"/>
+    <col min="16" max="16" width="8.796875" style="23" customWidth="1"/>
     <col min="17" max="17" width="12.1328125" style="23" customWidth="1"/>
     <col min="18" max="18" width="14.1328125" style="23" customWidth="1"/>
-    <col min="19" max="19" width="8.86328125" style="23" customWidth="1"/>
-    <col min="20" max="20" width="12.86328125" style="23" customWidth="1"/>
-    <col min="21" max="21" width="12.3984375" style="23" customWidth="1"/>
-    <col min="22" max="22" width="8.86328125" style="23" customWidth="1"/>
+    <col min="19" max="19" width="8.796875" style="23" customWidth="1"/>
+    <col min="20" max="20" width="12.796875" style="23" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" style="23" customWidth="1"/>
+    <col min="22" max="22" width="8.796875" style="23" customWidth="1"/>
     <col min="23" max="23" width="13.1328125" style="23" customWidth="1"/>
-    <col min="24" max="24" width="12.86328125" style="23" customWidth="1"/>
+    <col min="24" max="24" width="12.796875" style="23" customWidth="1"/>
     <col min="25" max="25" width="13" style="24" customWidth="1"/>
     <col min="26" max="26" width="13.1328125" style="23" customWidth="1"/>
-    <col min="27" max="27" width="12.86328125" style="23" customWidth="1"/>
+    <col min="27" max="27" width="12.796875" style="23" customWidth="1"/>
     <col min="28" max="28" width="13" style="24" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="13.1328125" style="23" customWidth="1"/>
-    <col min="30" max="30" width="12.86328125" style="23" customWidth="1"/>
+    <col min="30" max="30" width="12.796875" style="23" customWidth="1"/>
     <col min="31" max="31" width="13" style="24" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.1328125" style="23" customWidth="1"/>
-    <col min="33" max="33" width="12.86328125" style="23" customWidth="1"/>
+    <col min="33" max="33" width="12.796875" style="23" customWidth="1"/>
     <col min="34" max="34" width="13" style="24" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="13.1328125" style="23" customWidth="1"/>
-    <col min="36" max="36" width="12.86328125" style="23" customWidth="1"/>
+    <col min="36" max="36" width="12.796875" style="23" customWidth="1"/>
     <col min="37" max="37" width="13" style="24" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.86328125" style="23"/>
+    <col min="38" max="16384" width="8.796875" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="18"/>
-      <c r="B1" s="683" t="s">
+      <c r="B1" s="684" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="684"/>
-      <c r="D1" s="683"/>
-      <c r="E1" s="683" t="s">
+      <c r="C1" s="685"/>
+      <c r="D1" s="684"/>
+      <c r="E1" s="684" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="683"/>
-      <c r="G1" s="683"/>
-      <c r="H1" s="683" t="s">
+      <c r="F1" s="684"/>
+      <c r="G1" s="684"/>
+      <c r="H1" s="684" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="683"/>
-      <c r="J1" s="683"/>
-      <c r="K1" s="683" t="s">
+      <c r="I1" s="684"/>
+      <c r="J1" s="684"/>
+      <c r="K1" s="684" t="s">
         <v>165</v>
       </c>
-      <c r="L1" s="683"/>
-      <c r="M1" s="683"/>
-      <c r="N1" s="683" t="s">
+      <c r="L1" s="684"/>
+      <c r="M1" s="684"/>
+      <c r="N1" s="684" t="s">
         <v>162</v>
       </c>
-      <c r="O1" s="683"/>
-      <c r="P1" s="683"/>
-      <c r="Q1" s="683" t="s">
+      <c r="O1" s="684"/>
+      <c r="P1" s="684"/>
+      <c r="Q1" s="684" t="s">
         <v>160</v>
       </c>
-      <c r="R1" s="683"/>
-      <c r="S1" s="683"/>
-      <c r="T1" s="683" t="s">
+      <c r="R1" s="684"/>
+      <c r="S1" s="684"/>
+      <c r="T1" s="684" t="s">
         <v>163</v>
       </c>
-      <c r="U1" s="683"/>
-      <c r="V1" s="683"/>
-      <c r="W1" s="683" t="s">
+      <c r="U1" s="684"/>
+      <c r="V1" s="684"/>
+      <c r="W1" s="684" t="s">
         <v>267</v>
       </c>
-      <c r="X1" s="683"/>
-      <c r="Y1" s="683"/>
-      <c r="Z1" s="683" t="s">
+      <c r="X1" s="684"/>
+      <c r="Y1" s="684"/>
+      <c r="Z1" s="684" t="s">
         <v>276</v>
       </c>
-      <c r="AA1" s="683"/>
-      <c r="AB1" s="683"/>
-      <c r="AC1" s="683" t="s">
+      <c r="AA1" s="684"/>
+      <c r="AB1" s="684"/>
+      <c r="AC1" s="684" t="s">
         <v>328</v>
       </c>
-      <c r="AD1" s="683"/>
-      <c r="AE1" s="683"/>
-      <c r="AF1" s="683" t="s">
+      <c r="AD1" s="684"/>
+      <c r="AE1" s="684"/>
+      <c r="AF1" s="684" t="s">
         <v>554</v>
       </c>
-      <c r="AG1" s="683"/>
-      <c r="AH1" s="683"/>
-      <c r="AI1" s="683" t="s">
+      <c r="AG1" s="684"/>
+      <c r="AH1" s="684"/>
+      <c r="AI1" s="684" t="s">
         <v>1213</v>
       </c>
-      <c r="AJ1" s="683"/>
-      <c r="AK1" s="683"/>
+      <c r="AJ1" s="684"/>
+      <c r="AK1" s="684"/>
     </row>
     <row r="2" spans="1:37" ht="58.15" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
@@ -55683,7 +55691,7 @@
         <v>4.9969999999999999</v>
       </c>
       <c r="P4" s="398">
-        <v>1.8435061036621974</v>
+        <v>0.54</v>
       </c>
       <c r="Q4" s="399">
         <v>9.4450000000000003</v>
@@ -55734,10 +55742,10 @@
         <v>4.282</v>
       </c>
       <c r="AG4" s="407">
-        <v>73.923400000000001</v>
+        <v>7.92</v>
       </c>
       <c r="AH4" s="397">
-        <v>17.263755254553946</v>
+        <v>0.54</v>
       </c>
       <c r="AI4" s="407">
         <v>12.082237600000001</v>
@@ -58767,33 +58775,33 @@
   <dimension ref="A1:V282"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.73046875" style="297" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" style="299" customWidth="1"/>
-    <col min="3" max="3" width="34.19921875" style="539" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" style="298" customWidth="1"/>
-    <col min="5" max="5" width="20.3984375" style="298" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="297" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="299" customWidth="1"/>
+    <col min="3" max="3" width="34.1328125" style="539" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="298" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="298" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" style="329" customWidth="1"/>
     <col min="7" max="7" width="13.1328125" style="329" customWidth="1"/>
     <col min="8" max="8" width="12.1328125" style="298" customWidth="1"/>
     <col min="9" max="9" width="11.1328125" style="298" customWidth="1"/>
     <col min="10" max="10" width="13.1328125" style="298" customWidth="1"/>
-    <col min="11" max="11" width="13.3984375" style="298" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="298" customWidth="1"/>
     <col min="12" max="12" width="15.1328125" style="298" customWidth="1"/>
-    <col min="13" max="14" width="13.73046875" style="298" customWidth="1"/>
-    <col min="15" max="15" width="13.3984375" style="298" customWidth="1"/>
-    <col min="16" max="16" width="14.73046875" style="298" customWidth="1"/>
-    <col min="17" max="17" width="15.265625" style="298" customWidth="1"/>
-    <col min="18" max="18" width="18.265625" style="298" customWidth="1"/>
-    <col min="19" max="19" width="17.73046875" style="298" customWidth="1"/>
-    <col min="20" max="20" width="6.640625E-2" style="298" customWidth="1"/>
+    <col min="13" max="14" width="13.6640625" style="298" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" style="298" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" style="298" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" style="298" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" style="298" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" style="298" customWidth="1"/>
+    <col min="20" max="20" width="0" style="298" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="22.1328125" style="298" customWidth="1"/>
     <col min="22" max="22" width="18.1328125" style="298" customWidth="1"/>
     <col min="23" max="16384" width="9.1328125" style="298"/>
@@ -58831,33 +58839,33 @@
       <c r="A3" s="132"/>
       <c r="B3" s="139"/>
       <c r="C3" s="138"/>
-      <c r="D3" s="685" t="s">
+      <c r="D3" s="686" t="s">
         <v>582</v>
       </c>
-      <c r="E3" s="686"/>
-      <c r="F3" s="687" t="s">
+      <c r="E3" s="687"/>
+      <c r="F3" s="688" t="s">
         <v>581</v>
       </c>
-      <c r="G3" s="688"/>
-      <c r="H3" s="688"/>
-      <c r="I3" s="689"/>
-      <c r="J3" s="690" t="s">
+      <c r="G3" s="689"/>
+      <c r="H3" s="689"/>
+      <c r="I3" s="690"/>
+      <c r="J3" s="691" t="s">
         <v>580</v>
       </c>
-      <c r="K3" s="691"/>
-      <c r="L3" s="691"/>
-      <c r="M3" s="691"/>
-      <c r="N3" s="691"/>
-      <c r="O3" s="691"/>
-      <c r="P3" s="692"/>
-      <c r="Q3" s="693" t="s">
+      <c r="K3" s="692"/>
+      <c r="L3" s="692"/>
+      <c r="M3" s="692"/>
+      <c r="N3" s="692"/>
+      <c r="O3" s="692"/>
+      <c r="P3" s="693"/>
+      <c r="Q3" s="694" t="s">
         <v>579</v>
       </c>
-      <c r="R3" s="694"/>
-      <c r="S3" s="694"/>
-      <c r="T3" s="694"/>
-      <c r="U3" s="694"/>
-      <c r="V3" s="695"/>
+      <c r="R3" s="695"/>
+      <c r="S3" s="695"/>
+      <c r="T3" s="695"/>
+      <c r="U3" s="695"/>
+      <c r="V3" s="696"/>
     </row>
     <row r="4" spans="1:22" s="130" customFormat="1" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="346" t="s">
@@ -69097,7 +69105,7 @@
       <c r="U254" s="296"/>
       <c r="V254" s="296"/>
     </row>
-    <row r="255" spans="1:22" s="300" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:22" s="300" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A255" s="293"/>
       <c r="C255" s="537"/>
       <c r="D255" s="296"/>
@@ -70105,30 +70113,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="14.86328125" style="14" customWidth="1"/>
-    <col min="6" max="11" width="16.3984375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="16.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="14.796875" style="14" customWidth="1"/>
+    <col min="6" max="11" width="16.33203125" style="14" customWidth="1"/>
     <col min="12" max="12" width="6.1328125" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="696" t="s">
+      <c r="A1" s="697" t="s">
         <v>1219</v>
       </c>
-      <c r="B1" s="696"/>
-      <c r="C1" s="696"/>
-      <c r="D1" s="696"/>
-      <c r="E1" s="696"/>
-      <c r="F1" s="696"/>
-      <c r="G1" s="696"/>
-      <c r="H1" s="696"/>
-      <c r="I1" s="696"/>
-      <c r="J1" s="696"/>
-      <c r="K1" s="696"/>
+      <c r="B1" s="697"/>
+      <c r="C1" s="697"/>
+      <c r="D1" s="697"/>
+      <c r="E1" s="697"/>
+      <c r="F1" s="697"/>
+      <c r="G1" s="697"/>
+      <c r="H1" s="697"/>
+      <c r="I1" s="697"/>
+      <c r="J1" s="697"/>
+      <c r="K1" s="697"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -71222,18 +71230,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.265625" style="265" customWidth="1"/>
-    <col min="2" max="2" width="46.59765625" style="265" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="265" customWidth="1"/>
+    <col min="2" max="2" width="46.6640625" style="265" customWidth="1"/>
     <col min="3" max="3" width="30.1328125" style="293"/>
     <col min="4" max="16384" width="30.1328125" style="265"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.45">
-      <c r="A1" s="697" t="s">
+      <c r="A1" s="698" t="s">
         <v>1216</v>
       </c>
-      <c r="B1" s="697"/>
-      <c r="C1" s="697"/>
+      <c r="B1" s="698"/>
+      <c r="C1" s="698"/>
     </row>
     <row r="2" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A2" s="266"/>
@@ -74870,7 +74878,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="30.75" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:3" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A333" s="368" t="s">
         <v>82</v>
       </c>

--- a/wp-content-2/Supplemental-Data-Call-2020/FY2020-Paymentaccuracy.gov-Data-FINAL.xlsx
+++ b/wp-content-2/Supplemental-Data-Call-2020/FY2020-Paymentaccuracy.gov-Data-FINAL.xlsx
@@ -7241,24 +7241,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="8" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="8" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="25" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7277,10 +7259,28 @@
     <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="25" fillId="8" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="25" fillId="38" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="25" fillId="38" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="8" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8290,7 +8290,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -8348,78 +8348,78 @@
     <row r="1" spans="1:53" ht="31.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="121"/>
       <c r="B1" s="231"/>
-      <c r="C1" s="667" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="668"/>
-      <c r="E1" s="669"/>
-      <c r="F1" s="670" t="s">
+      <c r="C1" s="676" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="677"/>
+      <c r="E1" s="678"/>
+      <c r="F1" s="673" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="668"/>
-      <c r="H1" s="668"/>
-      <c r="I1" s="671" t="s">
+      <c r="G1" s="677"/>
+      <c r="H1" s="677"/>
+      <c r="I1" s="679" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="668"/>
-      <c r="K1" s="669"/>
-      <c r="L1" s="670" t="s">
+      <c r="J1" s="677"/>
+      <c r="K1" s="678"/>
+      <c r="L1" s="673" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="670"/>
-      <c r="N1" s="670"/>
-      <c r="O1" s="671" t="s">
+      <c r="M1" s="673"/>
+      <c r="N1" s="673"/>
+      <c r="O1" s="679" t="s">
         <v>175</v>
       </c>
-      <c r="P1" s="670"/>
-      <c r="Q1" s="672"/>
-      <c r="R1" s="670" t="s">
+      <c r="P1" s="673"/>
+      <c r="Q1" s="680"/>
+      <c r="R1" s="673" t="s">
         <v>271</v>
       </c>
-      <c r="S1" s="670"/>
-      <c r="T1" s="670"/>
-      <c r="U1" s="671" t="s">
+      <c r="S1" s="673"/>
+      <c r="T1" s="673"/>
+      <c r="U1" s="679" t="s">
         <v>320</v>
       </c>
-      <c r="V1" s="670"/>
-      <c r="W1" s="670"/>
-      <c r="X1" s="679" t="s">
+      <c r="V1" s="673"/>
+      <c r="W1" s="673"/>
+      <c r="X1" s="674" t="s">
         <v>462</v>
       </c>
-      <c r="Y1" s="680"/>
-      <c r="Z1" s="680"/>
-      <c r="AA1" s="673" t="s">
+      <c r="Y1" s="675"/>
+      <c r="Z1" s="675"/>
+      <c r="AA1" s="667" t="s">
         <v>587</v>
       </c>
-      <c r="AB1" s="674"/>
-      <c r="AC1" s="675"/>
-      <c r="AD1" s="673" t="s">
+      <c r="AB1" s="668"/>
+      <c r="AC1" s="669"/>
+      <c r="AD1" s="667" t="s">
         <v>591</v>
       </c>
-      <c r="AE1" s="674"/>
-      <c r="AF1" s="674"/>
-      <c r="AG1" s="674"/>
-      <c r="AH1" s="674"/>
-      <c r="AI1" s="674"/>
-      <c r="AJ1" s="674"/>
-      <c r="AK1" s="675"/>
-      <c r="AL1" s="673" t="s">
+      <c r="AE1" s="668"/>
+      <c r="AF1" s="668"/>
+      <c r="AG1" s="668"/>
+      <c r="AH1" s="668"/>
+      <c r="AI1" s="668"/>
+      <c r="AJ1" s="668"/>
+      <c r="AK1" s="669"/>
+      <c r="AL1" s="667" t="s">
         <v>591</v>
       </c>
-      <c r="AM1" s="675"/>
-      <c r="AN1" s="673" t="s">
+      <c r="AM1" s="669"/>
+      <c r="AN1" s="667" t="s">
         <v>591</v>
       </c>
-      <c r="AO1" s="675"/>
-      <c r="AP1" s="676"/>
-      <c r="AQ1" s="677"/>
-      <c r="AR1" s="678"/>
-      <c r="AS1" s="673" t="s">
+      <c r="AO1" s="669"/>
+      <c r="AP1" s="670"/>
+      <c r="AQ1" s="671"/>
+      <c r="AR1" s="672"/>
+      <c r="AS1" s="667" t="s">
         <v>591</v>
       </c>
-      <c r="AT1" s="674"/>
-      <c r="AU1" s="674"/>
-      <c r="AV1" s="675"/>
+      <c r="AT1" s="668"/>
+      <c r="AU1" s="668"/>
+      <c r="AV1" s="669"/>
     </row>
     <row r="2" spans="1:53" ht="81" x14ac:dyDescent="0.4">
       <c r="A2" s="431" t="s">
@@ -31619,6 +31619,11 @@
     <sortCondition ref="B215"/>
   </sortState>
   <mergeCells count="14">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="AS1:AV1"/>
     <mergeCell ref="AP1:AR1"/>
     <mergeCell ref="AN1:AO1"/>
@@ -31628,11 +31633,6 @@
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AD1:AK1"/>
     <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="U1:W1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -55316,7 +55316,7 @@
   <dimension ref="A1:AK37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>
@@ -58720,10 +58720,10 @@
         <v>45427.527111688003</v>
       </c>
       <c r="AG34" s="415">
-        <v>21117.830888779998</v>
+        <v>21051.827488779996</v>
       </c>
       <c r="AH34" s="397">
-        <v>0.46486859909542844</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="AI34" s="416">
         <v>46839.111228482616</v>
@@ -58775,10 +58775,10 @@
   <dimension ref="A1:V282"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="H59" sqref="H59"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
